--- a/Node_ERP_V2 - 복사본/document/게시판 테이블양식.xlsx
+++ b/Node_ERP_V2 - 복사본/document/게시판 테이블양식.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KS50517\Documents\workspace\NodeJS\Node_ERP_V2 - 복사본\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E0EE8A7-0409-4DC6-B955-3C3FE05E1161}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D4A3544-F6D2-4D05-B957-B1FD508F1743}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="59">
   <si>
     <t>열 이름</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -241,19 +241,23 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>가변문자열(65535)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>c_main_text</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>VARCHAR(65535)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>c_category</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>c_name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(5000)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>가변문자열(5000)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -781,6 +785,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -809,12 +819,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1162,7 +1166,7 @@
   <dimension ref="B1:L35"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1820,18 +1824,18 @@
       <c r="C2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="30" t="s">
+      <c r="D2" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="32" t="s">
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="32"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="35"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="37"/>
       <c r="L2" s="18" t="s">
         <v>11</v>
       </c>
@@ -1843,34 +1847,34 @@
       <c r="C3" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="33" t="s">
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="33"/>
-      <c r="J3" s="36"/>
-      <c r="K3" s="37"/>
+      <c r="I3" s="35"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="39"/>
       <c r="L3" s="17"/>
     </row>
     <row r="4" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B4" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="28" t="s">
+      <c r="C4" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28"/>
-      <c r="J4" s="28"/>
-      <c r="K4" s="28"/>
-      <c r="L4" s="29"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="30"/>
+      <c r="K4" s="30"/>
+      <c r="L4" s="31"/>
     </row>
     <row r="5" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
@@ -1970,7 +1974,7 @@
         <v>35</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="F8" s="10" t="s">
         <v>44</v>
@@ -1992,13 +1996,13 @@
         <v>53</v>
       </c>
       <c r="D9" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="E9" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="E9" s="10" t="s">
-        <v>55</v>
-      </c>
       <c r="F9" s="10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G9" s="10" t="s">
         <v>41</v>
@@ -2007,7 +2011,7 @@
       <c r="I9" s="10"/>
       <c r="J9" s="10"/>
       <c r="K9" s="10"/>
-      <c r="L9" s="39"/>
+      <c r="L9" s="29"/>
     </row>
     <row r="10" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="9">
@@ -2020,7 +2024,7 @@
         <v>49</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F10" s="10" t="s">
         <v>50</v>
@@ -2032,7 +2036,7 @@
       <c r="I10" s="10"/>
       <c r="J10" s="10"/>
       <c r="K10" s="10"/>
-      <c r="L10" s="39"/>
+      <c r="L10" s="29"/>
     </row>
     <row r="11" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="9">
@@ -2055,7 +2059,7 @@
       <c r="I11" s="10"/>
       <c r="J11" s="10"/>
       <c r="K11" s="10"/>
-      <c r="L11" s="38"/>
+      <c r="L11" s="28"/>
     </row>
     <row r="12" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="9">
@@ -2080,7 +2084,7 @@
       <c r="I12" s="10"/>
       <c r="J12" s="10"/>
       <c r="K12" s="10"/>
-      <c r="L12" s="39">
+      <c r="L12" s="29">
         <v>44886</v>
       </c>
     </row>
@@ -2107,7 +2111,7 @@
       <c r="I13" s="10"/>
       <c r="J13" s="10"/>
       <c r="K13" s="10"/>
-      <c r="L13" s="38" t="s">
+      <c r="L13" s="28" t="s">
         <v>43</v>
       </c>
     </row>
@@ -2184,7 +2188,7 @@
       <c r="I18" s="10"/>
       <c r="J18" s="10"/>
       <c r="K18" s="10"/>
-      <c r="L18" s="39"/>
+      <c r="L18" s="29"/>
     </row>
     <row r="19" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="9">
@@ -2199,7 +2203,7 @@
       <c r="I19" s="10"/>
       <c r="J19" s="10"/>
       <c r="K19" s="10"/>
-      <c r="L19" s="38"/>
+      <c r="L19" s="28"/>
     </row>
     <row r="20" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="9">
